--- a/Heuristicas/Resultado_Ensemble_smape_cenario_49.xlsx
+++ b/Heuristicas/Resultado_Ensemble_smape_cenario_49.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\TCC\Heuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFCD5F-5FB2-4267-A2B6-EB37F08F28E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,8 +266,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +330,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,14 +661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:E74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,134 +687,134 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>36.764</v>
+        <v>36.764000000000003</v>
       </c>
       <c r="E2">
-        <v>5.837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5.8369999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D3">
         <v>0.995</v>
       </c>
       <c r="E3">
-        <v>0.452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>6.592</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="E4">
-        <v>2.765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.7650000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C5">
         <v>0.01</v>
       </c>
       <c r="D5">
-        <v>21.984</v>
+        <v>21.984000000000002</v>
       </c>
       <c r="E5">
-        <v>4.362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6">
         <v>109.185</v>
       </c>
       <c r="E6">
-        <v>4.739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>4.7389999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>89.554</v>
+        <v>89.554000000000002</v>
       </c>
       <c r="E7">
-        <v>3.921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.9209999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C8">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D8">
-        <v>227.574</v>
+        <v>227.57400000000001</v>
       </c>
       <c r="E8">
-        <v>9.927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9.9269999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C9">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D9">
         <v>210.774</v>
@@ -761,92 +823,92 @@
         <v>2.488</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="C10">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D10">
-        <v>184.991</v>
+        <v>184.99100000000001</v>
       </c>
       <c r="E10">
         <v>1.607</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C11">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>198.821</v>
       </c>
       <c r="E11">
-        <v>2.237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C12">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>202.607</v>
       </c>
       <c r="E12">
-        <v>3.864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
         <v>11.384</v>
       </c>
       <c r="E13">
-        <v>0.288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C14">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <v>115.295</v>
       </c>
       <c r="E14">
-        <v>5.945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>5.9450000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -854,33 +916,33 @@
         <v>0.221</v>
       </c>
       <c r="C15">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D15">
         <v>44.6</v>
       </c>
       <c r="E15">
-        <v>0.867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>34.213</v>
+        <v>34.213000000000001</v>
       </c>
       <c r="E16">
         <v>5.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -888,72 +950,72 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D17">
-        <v>33.168</v>
+        <v>33.167999999999999</v>
       </c>
       <c r="E17">
-        <v>0.953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C18">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D18">
-        <v>22.754</v>
+        <v>22.754000000000001</v>
       </c>
       <c r="E18">
-        <v>0.983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>80.64400000000001</v>
+        <v>80.644000000000005</v>
       </c>
       <c r="E19">
-        <v>0.256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C20">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D20">
-        <v>45.626</v>
+        <v>45.625999999999998</v>
       </c>
       <c r="E20">
-        <v>1.192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C21">
         <v>0.01</v>
@@ -965,126 +1027,126 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C22">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D22">
-        <v>193.592</v>
+        <v>193.59200000000001</v>
       </c>
       <c r="E22">
         <v>15.778</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C23">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23">
-        <v>171.653</v>
+        <v>171.65299999999999</v>
       </c>
       <c r="E23">
         <v>3.05</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D24">
-        <v>44.466</v>
+        <v>44.466000000000001</v>
       </c>
       <c r="E24">
-        <v>0.473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C25">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D25">
-        <v>121.853</v>
+        <v>121.85299999999999</v>
       </c>
       <c r="E25">
         <v>4.28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C26">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D26">
-        <v>18.638</v>
+        <v>18.638000000000002</v>
       </c>
       <c r="E26">
         <v>1.137</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C27">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D27">
-        <v>37.783</v>
+        <v>37.783000000000001</v>
       </c>
       <c r="E27">
-        <v>0.402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C28">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D28">
-        <v>79.97199999999999</v>
+        <v>79.971999999999994</v>
       </c>
       <c r="E28">
         <v>2.972</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1092,21 +1154,21 @@
         <v>0.187</v>
       </c>
       <c r="C29">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D29">
-        <v>233.326</v>
+        <v>233.32599999999999</v>
       </c>
       <c r="E29">
         <v>42.95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1115,52 +1177,52 @@
         <v>24.131</v>
       </c>
       <c r="E30">
-        <v>0.331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C31">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D31">
         <v>43.064</v>
       </c>
       <c r="E31">
-        <v>1.685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1.6850000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C32">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D32">
-        <v>352.169</v>
+        <v>352.16899999999998</v>
       </c>
       <c r="E32">
-        <v>12.485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>12.484999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C33">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D33">
         <v>38.18</v>
@@ -1169,24 +1231,24 @@
         <v>2.806</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C34">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D34">
-        <v>421.244</v>
+        <v>421.24400000000003</v>
       </c>
       <c r="E34">
         <v>10.419</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1256,7 @@
         <v>0.09</v>
       </c>
       <c r="C35">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D35">
         <v>98.256</v>
@@ -1203,24 +1265,24 @@
         <v>10.301</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="C36">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D36">
-        <v>177.638</v>
+        <v>177.63800000000001</v>
       </c>
       <c r="E36">
-        <v>2.648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>2.6480000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1228,16 +1290,16 @@
         <v>0.157</v>
       </c>
       <c r="C37">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>9.127000000000001</v>
+        <v>9.1270000000000007</v>
       </c>
       <c r="E37">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1245,33 +1307,33 @@
         <v>0.253</v>
       </c>
       <c r="C38">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D38">
-        <v>293.385</v>
+        <v>293.38499999999999</v>
       </c>
       <c r="E38">
         <v>20.195</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C39">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D39">
-        <v>51.466</v>
+        <v>51.466000000000001</v>
       </c>
       <c r="E39">
-        <v>3.671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>3.6709999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1279,33 +1341,33 @@
         <v>0.05</v>
       </c>
       <c r="C40">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D40">
-        <v>6.815</v>
+        <v>6.8150000000000004</v>
       </c>
       <c r="E40">
-        <v>0.485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="C41">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D41">
-        <v>400.364</v>
+        <v>400.36399999999998</v>
       </c>
       <c r="E41">
         <v>24.209</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1313,16 +1375,16 @@
         <v>0.214</v>
       </c>
       <c r="C42">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D42">
         <v>301.524</v>
       </c>
       <c r="E42">
-        <v>26.483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>26.483000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1330,33 +1392,33 @@
         <v>0.111</v>
       </c>
       <c r="C43">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>66.886</v>
+        <v>66.885999999999996</v>
       </c>
       <c r="E43">
-        <v>3.829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>3.8290000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="C44">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D44">
-        <v>316.062</v>
+        <v>316.06200000000001</v>
       </c>
       <c r="E44">
         <v>10.061</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1364,89 +1426,89 @@
         <v>0.106</v>
       </c>
       <c r="C45">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D45">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E45">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C46">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D46">
         <v>106.345</v>
       </c>
       <c r="E46">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C47">
-        <v>0.008999999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D47">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E47">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C48">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D48">
-        <v>336779.343</v>
+        <v>336779.34299999999</v>
       </c>
       <c r="E48">
         <v>110954.232</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C49">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D49">
-        <v>567871.3909999999</v>
+        <v>567871.39099999995</v>
       </c>
       <c r="E49">
-        <v>34844.463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>34844.463000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C50">
         <v>0.02</v>
@@ -1455,32 +1517,32 @@
         <v>352.47</v>
       </c>
       <c r="E50">
-        <v>208.045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>208.04499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C51">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D51">
-        <v>56877067.762</v>
+        <v>56877067.762000002</v>
       </c>
       <c r="E51">
-        <v>33763703.939</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>33763703.939000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1489,10 +1551,10 @@
         <v>10211912.668</v>
       </c>
       <c r="E52">
-        <v>534747.2340000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>534747.23400000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1500,24 +1562,24 @@
         <v>0.253</v>
       </c>
       <c r="C53">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D53">
-        <v>47.827</v>
+        <v>47.826999999999998</v>
       </c>
       <c r="E53">
         <v>0.622</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.554</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C54">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D54">
         <v>4076.194</v>
@@ -1526,58 +1588,58 @@
         <v>1383.02</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="C55">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D55">
-        <v>113.338</v>
+        <v>113.33799999999999</v>
       </c>
       <c r="E55">
-        <v>23.425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>23.425000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C56">
         <v>0.01</v>
       </c>
       <c r="D56">
-        <v>3161.899</v>
+        <v>3161.8989999999999</v>
       </c>
       <c r="E56">
-        <v>288.907</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>288.90699999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C57">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D57">
-        <v>73.711</v>
+        <v>73.710999999999999</v>
       </c>
       <c r="E57">
         <v>28.83</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1585,33 +1647,33 @@
         <v>0.182</v>
       </c>
       <c r="C58">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D58">
         <v>13442.596</v>
       </c>
       <c r="E58">
-        <v>1189.176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1189.1759999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C59">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D59">
-        <v>1338.531</v>
+        <v>1338.5309999999999</v>
       </c>
       <c r="E59">
-        <v>133.527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>133.52699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1619,50 +1681,50 @@
         <v>0.318</v>
       </c>
       <c r="C60">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D60">
-        <v>80.901</v>
+        <v>80.900999999999996</v>
       </c>
       <c r="E60">
-        <v>4.437</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>4.4370000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C61">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>126.534</v>
+        <v>126.53400000000001</v>
       </c>
       <c r="E61">
-        <v>20.174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>20.173999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C62">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D62">
-        <v>98.658</v>
+        <v>98.658000000000001</v>
       </c>
       <c r="E62">
         <v>11.849</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1670,16 +1732,16 @@
         <v>0.115</v>
       </c>
       <c r="C63">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D63">
-        <v>1398.967</v>
+        <v>1398.9670000000001</v>
       </c>
       <c r="E63">
-        <v>764.218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>764.21799999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1687,50 +1749,50 @@
         <v>0.185</v>
       </c>
       <c r="C64">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D64">
-        <v>7999.394</v>
+        <v>7999.3940000000002</v>
       </c>
       <c r="E64">
         <v>1803.779</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C65">
         <v>0.1</v>
       </c>
       <c r="D65">
-        <v>13822.424</v>
+        <v>13822.424000000001</v>
       </c>
       <c r="E65">
-        <v>2964.128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>2964.1280000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.303</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C66">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D66">
-        <v>5873.011</v>
+        <v>5873.0110000000004</v>
       </c>
       <c r="E66">
-        <v>589.949</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>589.94899999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1738,50 +1800,50 @@
         <v>0.187</v>
       </c>
       <c r="C67">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D67">
-        <v>3987.435</v>
+        <v>3987.4349999999999</v>
       </c>
       <c r="E67">
         <v>1373.617</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C68">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D68">
         <v>12.183</v>
       </c>
       <c r="E68">
-        <v>0.788</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C69">
         <v>0.02</v>
       </c>
       <c r="D69">
-        <v>10755507.484</v>
+        <v>10755507.483999999</v>
       </c>
       <c r="E69">
-        <v>2120069.47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>2120069.4700000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1789,64 +1851,82 @@
         <v>0.36</v>
       </c>
       <c r="C70">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D70">
-        <v>2602595.502</v>
+        <v>2602595.5019999999</v>
       </c>
       <c r="E70">
-        <v>382729.721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>382729.72100000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C71">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D71">
         <v>5867487.517</v>
       </c>
       <c r="E71">
-        <v>560793.139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>560793.13899999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C72">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D72">
-        <v>12.242</v>
+        <v>12.242000000000001</v>
       </c>
       <c r="E72">
-        <v>1.247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C73">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>23.951</v>
+        <v>23.951000000000001</v>
       </c>
       <c r="E73">
-        <v>3.196</v>
+        <v>3.1960000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>0.14254166666666668</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:E74" si="0">AVERAGE(C2:C73)</f>
+        <v>1.729166666666667E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>1212231.266277778</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>521095.90327777783</v>
       </c>
     </row>
   </sheetData>
